--- a/results/fSaida.xlsx
+++ b/results/fSaida.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\perob\Documents\programação\delamination_unesp\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5BD106-653D-4ADE-8FC6-8908DE147FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6423A9-A9AA-4648-9493-5857AB4857B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16125" yWindow="0" windowWidth="4365" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>imagem</t>
   </si>
@@ -96,187 +96,97 @@
     <t>d21</t>
   </si>
   <si>
-    <t>1(,06371)</t>
-  </si>
-  <si>
-    <t>1(,08587)</t>
-  </si>
-  <si>
-    <t>1(.06224)</t>
-  </si>
-  <si>
-    <t>1(,07883)</t>
-  </si>
-  <si>
-    <t>1(,09141)</t>
-  </si>
-  <si>
-    <t>1(,08990)</t>
-  </si>
-  <si>
-    <t>1(,05639)</t>
-  </si>
-  <si>
-    <t>1(,09491)</t>
-  </si>
-  <si>
-    <t>1(,06740)</t>
-  </si>
-  <si>
-    <t>1(,07840)</t>
-  </si>
-  <si>
-    <t>1(,07290)</t>
-  </si>
-  <si>
-    <t>1(,03734)</t>
-  </si>
-  <si>
-    <t>1(,06102)</t>
-  </si>
-  <si>
-    <t>1(,10635)</t>
-  </si>
-  <si>
-    <t>1(,07607)</t>
-  </si>
-  <si>
-    <t>1(0,7756)</t>
-  </si>
-  <si>
-    <t>1(,07628)</t>
-  </si>
-  <si>
     <t>Fa1</t>
   </si>
   <si>
-    <t>7(,9203)</t>
-  </si>
-  <si>
-    <t>5(,1534)</t>
-  </si>
-  <si>
-    <t>4(,9613)</t>
-  </si>
-  <si>
-    <t>5(,3304)</t>
-  </si>
-  <si>
-    <t>4(,9449)</t>
-  </si>
-  <si>
-    <t>5(,0608)</t>
-  </si>
-  <si>
-    <t>8(,0667)</t>
-  </si>
-  <si>
-    <t>5(,5058)</t>
-  </si>
-  <si>
-    <t>5(,7733)</t>
-  </si>
-  <si>
-    <t>6(,0886)</t>
-  </si>
-  <si>
-    <t>5(,5320)</t>
-  </si>
-  <si>
-    <t>7(,2184)</t>
-  </si>
-  <si>
-    <t>6(,8686)</t>
-  </si>
-  <si>
-    <t>6(,4830)</t>
-  </si>
-  <si>
-    <t>6(,2067)</t>
-  </si>
-  <si>
-    <t>6(,8455)</t>
-  </si>
-  <si>
-    <t>7(,1206)</t>
-  </si>
-  <si>
-    <t>5(,9285)</t>
-  </si>
-  <si>
-    <t>4(,1326)</t>
-  </si>
-  <si>
-    <t>4(,0511)</t>
-  </si>
-  <si>
-    <t>3(,0797)</t>
-  </si>
-  <si>
     <t>AreaDel</t>
   </si>
   <si>
-    <t>10(,976)</t>
-  </si>
-  <si>
-    <t>6(,8689)</t>
-  </si>
-  <si>
-    <t>5(,8785)</t>
-  </si>
-  <si>
-    <t>5(,5229)</t>
-  </si>
-  <si>
-    <t>5(,5091)</t>
-  </si>
-  <si>
-    <t>5(,5658)</t>
-  </si>
-  <si>
-    <t>10(,692)</t>
-  </si>
-  <si>
-    <t>6(,0917)</t>
-  </si>
-  <si>
-    <t>5(,2221)</t>
-  </si>
-  <si>
-    <t>6(,7577)</t>
-  </si>
-  <si>
-    <t>6(,0200)</t>
-  </si>
-  <si>
-    <t>8(,2412)</t>
-  </si>
-  <si>
-    <t>7(,2498)</t>
-  </si>
-  <si>
-    <t>7(,9390)</t>
-  </si>
-  <si>
-    <t>7(,5950)</t>
-  </si>
-  <si>
-    <t>9(,0338)</t>
-  </si>
-  <si>
-    <t>9(,4544)</t>
-  </si>
-  <si>
-    <t>8(,8409)</t>
-  </si>
-  <si>
-    <t>5(5192)</t>
-  </si>
-  <si>
-    <t>5(,3961)</t>
-  </si>
-  <si>
-    <t>3(,4156)</t>
+    <t>d22</t>
+  </si>
+  <si>
+    <t>d23</t>
+  </si>
+  <si>
+    <t>d25</t>
+  </si>
+  <si>
+    <t>d26</t>
+  </si>
+  <si>
+    <t>d27</t>
+  </si>
+  <si>
+    <t>d28</t>
+  </si>
+  <si>
+    <t>d29</t>
+  </si>
+  <si>
+    <t>d30</t>
+  </si>
+  <si>
+    <t>d24</t>
+  </si>
+  <si>
+    <t>d31</t>
+  </si>
+  <si>
+    <t>d32</t>
+  </si>
+  <si>
+    <t>d33</t>
+  </si>
+  <si>
+    <t>d34</t>
+  </si>
+  <si>
+    <t>d35</t>
+  </si>
+  <si>
+    <t>d36</t>
+  </si>
+  <si>
+    <t>d37</t>
+  </si>
+  <si>
+    <t>d38</t>
+  </si>
+  <si>
+    <t>d39</t>
+  </si>
+  <si>
+    <t>d40</t>
+  </si>
+  <si>
+    <t>d41</t>
+  </si>
+  <si>
+    <t>d42</t>
+  </si>
+  <si>
+    <t>d43</t>
+  </si>
+  <si>
+    <t>d44</t>
+  </si>
+  <si>
+    <t>d45</t>
+  </si>
+  <si>
+    <t>d46</t>
+  </si>
+  <si>
+    <t>d47</t>
+  </si>
+  <si>
+    <t>d48</t>
+  </si>
+  <si>
+    <t>d49</t>
+  </si>
+  <si>
+    <t>d50</t>
   </si>
 </sst>
 </file>
@@ -327,9 +237,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -610,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,304 +543,704 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>63</v>
+      <c r="B2" s="1">
+        <v>1.0671999999999999</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.66049999999999998</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.5524</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>64</v>
+      <c r="B3" s="1">
+        <v>1.0755999999999999</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.5887</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2.5699000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>65</v>
+      <c r="B4" s="1">
+        <v>1.0823</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.47370000000000001</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.2591000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>66</v>
+      <c r="B5" s="1">
+        <v>1.08403</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.4819</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2.3468</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>67</v>
+      <c r="B6" s="1">
+        <v>1.1008</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.42030000000000001</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2.4762</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>68</v>
+      <c r="B7" s="1">
+        <v>1.0991</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.52170000000000005</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3.0194000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>69</v>
+      <c r="B8" s="1">
+        <v>1.1092</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.45760000000000001</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.9319999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>70</v>
+      <c r="B9" s="1">
+        <v>1.0823</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.55020000000000002</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2.6236000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>71</v>
+      <c r="B10" s="1">
+        <v>1.1596</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.23369999999999999</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.2412000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>72</v>
+      <c r="B11" s="1">
+        <v>1.0772999999999999</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.58140000000000003</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2.5966</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>73</v>
+      <c r="B12" s="1">
+        <v>1.1142000000000001</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.30869999999999997</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2.0743999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>74</v>
+      <c r="B13" s="1">
+        <v>1.1546000000000001</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.25840000000000002</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2.3944000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>75</v>
+      <c r="B14" s="1">
+        <v>1.1074999999999999</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.51990000000000003</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3.2774000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>76</v>
+      <c r="B15" s="1">
+        <v>1.0956999999999999</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.44109999999999999</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2.4626999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>77</v>
+      <c r="B16" s="1">
+        <v>1.1025</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.40760000000000002</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2.4430999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>78</v>
+      <c r="B17" s="1">
+        <v>1.0973999999999999</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2.6608999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>79</v>
+      <c r="B18" s="1">
+        <v>1.0924</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.45050000000000001</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2.4228999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>80</v>
+      <c r="B19" s="1">
+        <v>1.1243000000000001</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.30630000000000002</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2.2501000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>81</v>
+      <c r="B20" s="1">
+        <v>1.0806</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.51749999999999996</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2.4157000000000002</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>82</v>
+      <c r="B21" s="1">
+        <v>1.0789</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.40839999999999999</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1.8651</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="1">
+        <v>1.1042000000000001</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.3231</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1.9699</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1.1002000000000001</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.2888</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1.6910000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1.0694999999999999</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.38479999999999998</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1.5408999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1.1081000000000001</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.39779999999999999</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2.5226999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1.1066</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.35149999999999998</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2.1957</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1.2419</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.32490000000000002</v>
+      </c>
+      <c r="D27" s="1">
+        <v>4.9021999999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1.21109</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.34939999999999999</v>
+      </c>
+      <c r="D28" s="1">
+        <v>4.5345000000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1.2254</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.25480000000000003</v>
+      </c>
+      <c r="D30" s="1">
+        <v>3.5558000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1.2039</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.33679999999999999</v>
+      </c>
+      <c r="D31" s="1">
+        <v>4.2090300000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1.2366999999999999</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.36780000000000002</v>
+      </c>
+      <c r="D32" s="1">
+        <v>5.4164000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1.1738</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.44579999999999997</v>
+      </c>
+      <c r="D33" s="1">
+        <v>4.6868999999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1.2058</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.37490000000000001</v>
+      </c>
+      <c r="D34" s="1">
+        <v>4.7344999999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1.1841999999999999</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.4078</v>
+      </c>
+      <c r="D35" s="1">
+        <v>4.5639000000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1.1761999999999999</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.39319999999999999</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1.1880999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>83</v>
+      <c r="B37" s="1">
+        <v>1.1880999999999999</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.41360000000000002</v>
+      </c>
+      <c r="D37" s="1">
+        <v>4.7359999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1.2263999999999999</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.3821</v>
+      </c>
+      <c r="D38" s="1">
+        <v>5.3582999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1.2120500000000001</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.33160000000000001</v>
+      </c>
+      <c r="D39" s="1">
+        <v>4.3255999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1.1352</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.46079999999999999</v>
+      </c>
+      <c r="D40" s="1">
+        <v>3.7010999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1.1987000000000001</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.36209999999999998</v>
+      </c>
+      <c r="D41" s="1">
+        <v>4.4001000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1.2089000000000001</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.43259999999999998</v>
+      </c>
+      <c r="D42" s="1">
+        <v>5.5522999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1.2295</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.3569</v>
+      </c>
+      <c r="D43" s="1">
+        <v>5.0808</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1.2295</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.37406</v>
+      </c>
+      <c r="D44" s="1">
+        <v>5.3242000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1.2048000000000001</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.37169999999999997</v>
+      </c>
+      <c r="D45" s="1">
+        <v>4.6684000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1.2017</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.27579999999999999</v>
+      </c>
+      <c r="D46" s="1">
+        <v>3.4072</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1.2012</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.33439999999999998</v>
+      </c>
+      <c r="D47" s="1">
+        <v>4.12005</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1.2195</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.40289999999999998</v>
+      </c>
+      <c r="D48" s="1">
+        <v>5.4584999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="1">
+        <v>1.2436</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.34339999999999998</v>
+      </c>
+      <c r="D49" s="1">
+        <v>5.2217000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1.2505999999999999</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.30501</v>
+      </c>
+      <c r="D50" s="1">
+        <v>4.7840800000000003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1.2165999999999999</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.41149999999999998</v>
+      </c>
+      <c r="D51" s="1">
+        <v>5.4957000000000003</v>
       </c>
     </row>
   </sheetData>

--- a/results/fSaida.xlsx
+++ b/results/fSaida.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\perob\Documents\programação\delamination_unesp\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\perob\Documents\programação\GitHub\delamination_unesp\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6423A9-A9AA-4648-9493-5857AB4857B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329B529A-C7F7-4B0B-89A3-7EC90CE697C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14160" yWindow="0" windowWidth="6330" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>imagem</t>
   </si>
@@ -96,97 +96,10 @@
     <t>d21</t>
   </si>
   <si>
-    <t>Fa1</t>
-  </si>
-  <si>
     <t>AreaDel</t>
   </si>
   <si>
-    <t>d22</t>
-  </si>
-  <si>
-    <t>d23</t>
-  </si>
-  <si>
-    <t>d25</t>
-  </si>
-  <si>
-    <t>d26</t>
-  </si>
-  <si>
-    <t>d27</t>
-  </si>
-  <si>
-    <t>d28</t>
-  </si>
-  <si>
-    <t>d29</t>
-  </si>
-  <si>
-    <t>d30</t>
-  </si>
-  <si>
-    <t>d24</t>
-  </si>
-  <si>
-    <t>d31</t>
-  </si>
-  <si>
-    <t>d32</t>
-  </si>
-  <si>
-    <t>d33</t>
-  </si>
-  <si>
-    <t>d34</t>
-  </si>
-  <si>
-    <t>d35</t>
-  </si>
-  <si>
-    <t>d36</t>
-  </si>
-  <si>
-    <t>d37</t>
-  </si>
-  <si>
-    <t>d38</t>
-  </si>
-  <si>
-    <t>d39</t>
-  </si>
-  <si>
-    <t>d40</t>
-  </si>
-  <si>
-    <t>d41</t>
-  </si>
-  <si>
-    <t>d42</t>
-  </si>
-  <si>
-    <t>d43</t>
-  </si>
-  <si>
-    <t>d44</t>
-  </si>
-  <si>
-    <t>d45</t>
-  </si>
-  <si>
-    <t>d46</t>
-  </si>
-  <si>
-    <t>d47</t>
-  </si>
-  <si>
-    <t>d48</t>
-  </si>
-  <si>
-    <t>d49</t>
-  </si>
-  <si>
-    <t>d50</t>
+    <t>Fa</t>
   </si>
 </sst>
 </file>
@@ -237,10 +150,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,8 +437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,10 +457,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -554,13 +468,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>1.0671999999999999</v>
+        <v>1.0619000000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>0.66049999999999998</v>
+        <v>8.8590000000000002E-2</v>
       </c>
       <c r="D2" s="1">
-        <v>2.5524</v>
+        <v>2.5097999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -568,27 +482,27 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>1.0755999999999999</v>
+        <v>1.1249</v>
       </c>
       <c r="C3" s="1">
-        <v>0.5887</v>
+        <v>0.11459999999999999</v>
       </c>
       <c r="D3" s="1">
-        <v>2.5699000000000001</v>
+        <v>3.2492999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1">
-        <v>1.0823</v>
+      <c r="B4" s="3">
+        <v>1.0686</v>
       </c>
       <c r="C4" s="1">
-        <v>0.47370000000000001</v>
+        <v>7.6200000000000004E-2</v>
       </c>
       <c r="D4" s="1">
-        <v>2.2591000000000001</v>
+        <v>2.1600700000000002</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -596,13 +510,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>1.08403</v>
+        <v>1.0814999999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>0.4819</v>
+        <v>8.9700000000000002E-2</v>
       </c>
       <c r="D5" s="1">
-        <v>2.3468</v>
+        <v>2.5419</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -610,13 +524,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>1.1008</v>
+        <v>1.1016999999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>0.42030000000000001</v>
+        <v>0.97109999999999996</v>
       </c>
       <c r="D6" s="1">
-        <v>2.4762</v>
+        <v>2.7511999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -624,13 +538,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="1">
-        <v>1.0991</v>
+        <v>1.0891</v>
       </c>
       <c r="C7" s="1">
-        <v>0.52170000000000005</v>
+        <v>0.1202</v>
       </c>
       <c r="D7" s="1">
-        <v>3.0194000000000001</v>
+        <v>3.4062000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -638,13 +552,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="1">
-        <v>1.1092</v>
+        <v>1.1003000000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>0.45760000000000001</v>
+        <v>0.11409999999999999</v>
       </c>
       <c r="D8" s="1">
-        <v>2.9319999999999999</v>
+        <v>3.2341000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -652,13 +566,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="1">
-        <v>1.0823</v>
+        <v>1.0732999999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>0.55020000000000002</v>
+        <v>7.8299999999999995E-2</v>
       </c>
       <c r="D9" s="1">
-        <v>2.6236000000000002</v>
+        <v>2.2185000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -666,13 +580,13 @@
         <v>10</v>
       </c>
       <c r="B10" s="1">
-        <v>1.1596</v>
+        <v>1.1496999999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>0.23369999999999999</v>
+        <v>0.87690000000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>2.2412000000000001</v>
+        <v>2.4845000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -680,13 +594,13 @@
         <v>11</v>
       </c>
       <c r="B11" s="1">
-        <v>1.0772999999999999</v>
+        <v>1.0672600000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>0.58140000000000003</v>
+        <v>9.1399999999999995E-2</v>
       </c>
       <c r="D11" s="1">
-        <v>2.5966</v>
+        <v>2.5900099999999999</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -694,13 +608,13 @@
         <v>12</v>
       </c>
       <c r="B12" s="1">
-        <v>1.1142000000000001</v>
+        <v>1.1052</v>
       </c>
       <c r="C12" s="1">
-        <v>0.30869999999999997</v>
+        <v>6.7400000000000002E-2</v>
       </c>
       <c r="D12" s="1">
-        <v>2.0743999999999998</v>
+        <v>1.9103000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -708,13 +622,13 @@
         <v>13</v>
       </c>
       <c r="B13" s="1">
-        <v>1.1546000000000001</v>
+        <v>1.1452</v>
       </c>
       <c r="C13" s="1">
-        <v>0.25840000000000002</v>
+        <v>0.10009999999999999</v>
       </c>
       <c r="D13" s="1">
-        <v>2.3944000000000001</v>
+        <v>2.83609</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -722,13 +636,13 @@
         <v>14</v>
       </c>
       <c r="B14" s="1">
-        <v>1.1074999999999999</v>
+        <v>1.0973999999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>0.51990000000000003</v>
+        <v>0.1106</v>
       </c>
       <c r="D14" s="1">
-        <v>3.2774000000000001</v>
+        <v>3.1335000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -736,13 +650,13 @@
         <v>15</v>
       </c>
       <c r="B15" s="1">
-        <v>1.0956999999999999</v>
+        <v>1.0860300000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>0.44109999999999999</v>
+        <v>9.35E-2</v>
       </c>
       <c r="D15" s="1">
-        <v>2.4626999999999999</v>
+        <v>2.6496</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -750,13 +664,13 @@
         <v>16</v>
       </c>
       <c r="B16" s="1">
-        <v>1.1025</v>
+        <v>1.0933999999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>0.40760000000000002</v>
+        <v>9.69E-2</v>
       </c>
       <c r="D16" s="1">
-        <v>2.4430999999999998</v>
+        <v>2.7467000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -764,13 +678,13 @@
         <v>17</v>
       </c>
       <c r="B17" s="1">
-        <v>1.0973999999999999</v>
+        <v>1.0884</v>
       </c>
       <c r="C17" s="1">
-        <v>0.46800000000000003</v>
+        <v>0.1171</v>
       </c>
       <c r="D17" s="1">
-        <v>2.6608999999999998</v>
+        <v>3.3178999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -778,13 +692,13 @@
         <v>18</v>
       </c>
       <c r="B18" s="1">
-        <v>1.0924</v>
+        <v>1.0831999999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>0.45050000000000001</v>
+        <v>9.74E-2</v>
       </c>
       <c r="D18" s="1">
-        <v>2.4228999999999998</v>
+        <v>2.7600199999999999</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -792,13 +706,13 @@
         <v>19</v>
       </c>
       <c r="B19" s="1">
-        <v>1.1243000000000001</v>
+        <v>1.1138999999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>0.30630000000000002</v>
+        <v>0.1205</v>
       </c>
       <c r="D19" s="1">
-        <v>2.2501000000000002</v>
+        <v>3.4163999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -806,13 +720,13 @@
         <v>20</v>
       </c>
       <c r="B20" s="1">
-        <v>1.0806</v>
+        <v>1.07209</v>
       </c>
       <c r="C20" s="1">
-        <v>0.51749999999999996</v>
+        <v>8.43E-2</v>
       </c>
       <c r="D20" s="1">
-        <v>2.4157000000000002</v>
+        <v>2.3898999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -820,13 +734,13 @@
         <v>21</v>
       </c>
       <c r="B21" s="1">
-        <v>1.0789</v>
+        <v>1.0633999999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>0.40839999999999999</v>
+        <v>6.3399999999999998E-2</v>
       </c>
       <c r="D21" s="1">
-        <v>1.8651</v>
+        <v>1.7970999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -834,414 +748,188 @@
         <v>22</v>
       </c>
       <c r="B22" s="1">
-        <v>1.1042000000000001</v>
+        <v>1.0943000000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>0.3231</v>
+        <v>7.1599999999999997E-2</v>
       </c>
       <c r="D22" s="1">
-        <v>1.9699</v>
+        <v>2.0291999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="1">
-        <v>1.1002000000000001</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0.2888</v>
-      </c>
-      <c r="D23" s="1">
-        <v>1.6910000000000001</v>
-      </c>
+      <c r="A23" s="2"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="1">
-        <v>1.0694999999999999</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0.38479999999999998</v>
-      </c>
-      <c r="D24" s="1">
-        <v>1.5408999999999999</v>
-      </c>
+      <c r="A24" s="2"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="1">
-        <v>1.1081000000000001</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0.39779999999999999</v>
-      </c>
-      <c r="D25" s="1">
-        <v>2.5226999999999999</v>
-      </c>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="1">
-        <v>1.1066</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0.35149999999999998</v>
-      </c>
-      <c r="D26" s="1">
-        <v>2.1957</v>
-      </c>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="1">
-        <v>1.2419</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="D27" s="1">
-        <v>4.9021999999999997</v>
-      </c>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="1">
-        <v>1.21109</v>
-      </c>
-      <c r="C28" s="1">
-        <v>0.34939999999999999</v>
-      </c>
-      <c r="D28" s="1">
-        <v>4.5345000000000004</v>
-      </c>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="1">
-        <v>1.2254</v>
-      </c>
-      <c r="C30" s="1">
-        <v>0.25480000000000003</v>
-      </c>
-      <c r="D30" s="1">
-        <v>3.5558000000000001</v>
-      </c>
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="1">
-        <v>1.2039</v>
-      </c>
-      <c r="C31" s="1">
-        <v>0.33679999999999999</v>
-      </c>
-      <c r="D31" s="1">
-        <v>4.2090300000000003</v>
-      </c>
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="1">
-        <v>1.2366999999999999</v>
-      </c>
-      <c r="C32" s="1">
-        <v>0.36780000000000002</v>
-      </c>
-      <c r="D32" s="1">
-        <v>5.4164000000000003</v>
-      </c>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="1">
-        <v>1.1738</v>
-      </c>
-      <c r="C33" s="1">
-        <v>0.44579999999999997</v>
-      </c>
-      <c r="D33" s="1">
-        <v>4.6868999999999996</v>
-      </c>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" s="1">
-        <v>1.2058</v>
-      </c>
-      <c r="C34" s="1">
-        <v>0.37490000000000001</v>
-      </c>
-      <c r="D34" s="1">
-        <v>4.7344999999999997</v>
-      </c>
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" s="1">
-        <v>1.1841999999999999</v>
-      </c>
-      <c r="C35" s="1">
-        <v>0.4078</v>
-      </c>
-      <c r="D35" s="1">
-        <v>4.5639000000000003</v>
-      </c>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" s="1">
-        <v>1.1761999999999999</v>
-      </c>
-      <c r="C36" s="1">
-        <v>0.39319999999999999</v>
-      </c>
-      <c r="D36" s="1">
-        <v>1.1880999999999999</v>
-      </c>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" s="1">
-        <v>1.1880999999999999</v>
-      </c>
-      <c r="C37" s="1">
-        <v>0.41360000000000002</v>
-      </c>
-      <c r="D37" s="1">
-        <v>4.7359999999999998</v>
-      </c>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" s="1">
-        <v>1.2263999999999999</v>
-      </c>
-      <c r="C38" s="1">
-        <v>0.3821</v>
-      </c>
-      <c r="D38" s="1">
-        <v>5.3582999999999998</v>
-      </c>
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" s="1">
-        <v>1.2120500000000001</v>
-      </c>
-      <c r="C39" s="1">
-        <v>0.33160000000000001</v>
-      </c>
-      <c r="D39" s="1">
-        <v>4.3255999999999997</v>
-      </c>
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" s="1">
-        <v>1.1352</v>
-      </c>
-      <c r="C40" s="1">
-        <v>0.46079999999999999</v>
-      </c>
-      <c r="D40" s="1">
-        <v>3.7010999999999998</v>
-      </c>
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" s="1">
-        <v>1.1987000000000001</v>
-      </c>
-      <c r="C41" s="1">
-        <v>0.36209999999999998</v>
-      </c>
-      <c r="D41" s="1">
-        <v>4.4001000000000001</v>
-      </c>
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42" s="1">
-        <v>1.2089000000000001</v>
-      </c>
-      <c r="C42" s="1">
-        <v>0.43259999999999998</v>
-      </c>
-      <c r="D42" s="1">
-        <v>5.5522999999999998</v>
-      </c>
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" s="1">
-        <v>1.2295</v>
-      </c>
-      <c r="C43" s="1">
-        <v>0.3569</v>
-      </c>
-      <c r="D43" s="1">
-        <v>5.0808</v>
-      </c>
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44" s="1">
-        <v>1.2295</v>
-      </c>
-      <c r="C44" s="1">
-        <v>0.37406</v>
-      </c>
-      <c r="D44" s="1">
-        <v>5.3242000000000003</v>
-      </c>
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45" s="1">
-        <v>1.2048000000000001</v>
-      </c>
-      <c r="C45" s="1">
-        <v>0.37169999999999997</v>
-      </c>
-      <c r="D45" s="1">
-        <v>4.6684000000000001</v>
-      </c>
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46" s="1">
-        <v>1.2017</v>
-      </c>
-      <c r="C46" s="1">
-        <v>0.27579999999999999</v>
-      </c>
-      <c r="D46" s="1">
-        <v>3.4072</v>
-      </c>
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47" s="1">
-        <v>1.2012</v>
-      </c>
-      <c r="C47" s="1">
-        <v>0.33439999999999998</v>
-      </c>
-      <c r="D47" s="1">
-        <v>4.12005</v>
-      </c>
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" s="1">
-        <v>1.2195</v>
-      </c>
-      <c r="C48" s="1">
-        <v>0.40289999999999998</v>
-      </c>
-      <c r="D48" s="1">
-        <v>5.4584999999999999</v>
-      </c>
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49" s="1">
-        <v>1.2436</v>
-      </c>
-      <c r="C49" s="1">
-        <v>0.34339999999999998</v>
-      </c>
-      <c r="D49" s="1">
-        <v>5.2217000000000002</v>
-      </c>
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50" s="1">
-        <v>1.2505999999999999</v>
-      </c>
-      <c r="C50" s="1">
-        <v>0.30501</v>
-      </c>
-      <c r="D50" s="1">
-        <v>4.7840800000000003</v>
-      </c>
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51" s="1">
-        <v>1.2165999999999999</v>
-      </c>
-      <c r="C51" s="1">
-        <v>0.41149999999999998</v>
-      </c>
-      <c r="D51" s="1">
-        <v>5.4957000000000003</v>
-      </c>
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
